--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_8_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_8_sawtooth_0_.xlsx
@@ -589,21 +589,21 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.7183418471838845, 8.545762862257439]</t>
+          <t>[4.697842502525113, 8.56626220691621]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>2.953903788238676e-11</v>
+        <v>4.657030316934652e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>5.907807576477353e-11</v>
+        <v>9.314060633869303e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.509473947670772</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.8491055858966963, -1.1698423094448476]</t>
+          <t>[-1.8365266363327724, -1.1824212590087715]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.8835414478432195, 10.296027636891596]</t>
+          <t>[7.883681240561653, 10.295887844173162]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>6.215015015015162</v>
       </c>
       <c r="X2" t="n">
-        <v>4.816636636636748</v>
+        <v>4.868428428428544</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.613393393393576</v>
+        <v>7.56160160160178</v>
       </c>
     </row>
     <row r="3">
@@ -670,35 +670,35 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.9314908915863143, 10.299414998158756]</t>
+          <t>[2.9005384517494175, 10.330367437995653]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0004996863285766651</v>
+        <v>0.0005547531472123168</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0004996863285766651</v>
+        <v>0.0005547531472123168</v>
       </c>
       <c r="O3" t="n">
         <v>1.981184556317888</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3773949772495788, 2.5849741353861964]</t>
+          <t>[1.3899739268135027, 2.5723951858222724]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>8.075033974819235e-10</v>
+        <v>3.811235771422616e-10</v>
       </c>
       <c r="R3" t="n">
-        <v>8.075033974819235e-10</v>
+        <v>3.811235771422616e-10</v>
       </c>
       <c r="S3" t="n">
         <v>9.464078681611623</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.473525688350692, 11.454631674872553]</t>
+          <t>[7.473210708397952, 11.454946654825294]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -711,10 +711,10 @@
         <v>15.36432432432437</v>
       </c>
       <c r="X3" t="n">
-        <v>13.20792792792797</v>
+        <v>13.2528528528529</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.52072072072077</v>
+        <v>17.47579579579585</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_8_sawtooth_0_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_0/cosinor_8_sawtooth_0_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[4.697842502525113, 8.56626220691621]</t>
+          <t>[4.700054929353637, 8.564049780087686]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.657030316934652e-11</v>
+        <v>4.436606637625573e-11</v>
       </c>
       <c r="N2" t="n">
-        <v>9.314060633869303e-11</v>
+        <v>8.873213275251146e-11</v>
       </c>
       <c r="O2" t="n">
         <v>-1.509473947670772</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[7.883681240561653, 10.295887844173162]</t>
+          <t>[7.884413811367128, 10.295155273367687]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -670,14 +670,14 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.9005384517494175, 10.330367437995653]</t>
+          <t>[2.9246719649974704, 10.3062339247476]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0005547531472123168</v>
+        <v>0.0005114344822876316</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0005547531472123168</v>
+        <v>0.0005114344822876316</v>
       </c>
       <c r="O3" t="n">
         <v>1.981184556317888</v>
@@ -698,7 +698,7 @@
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[7.473210708397952, 11.454946654825294]</t>
+          <t>[7.473711716773057, 11.45444564645019]</t>
         </is>
       </c>
       <c r="U3" t="n">
